--- a/src/pom/ExcelData/LeaveAndAttendance/AttendanceRegularization.xlsx
+++ b/src/pom/ExcelData/LeaveAndAttendance/AttendanceRegularization.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8340" tabRatio="458" activeTab="2"/>
+    <workbookView windowWidth="20400" windowHeight="8340" tabRatio="458" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceRegularization" sheetId="1" r:id="rId1"/>
     <sheet name="AttendanceApproval" sheetId="2" r:id="rId2"/>
     <sheet name="AttendanceVerify" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>Search Dropdown</t>
   </si>
@@ -42,10 +42,10 @@
     <t>Emp. Name</t>
   </si>
   <si>
-    <t>00005 Shinde Shraddha</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>00003 Ajinkya Rahane</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>Present</t>
@@ -69,16 +69,19 @@
     <t>SEP 2017</t>
   </si>
   <si>
-    <t>Shinde Shraddha</t>
-  </si>
-  <si>
-    <t>02-Sep-17</t>
+    <t>Priya Gupta</t>
+  </si>
+  <si>
+    <t>18-Sep-17</t>
   </si>
   <si>
     <t>Reject By RM</t>
   </si>
   <si>
-    <t>07-Sep-17</t>
+    <t>Ajinkya Rahane</t>
+  </si>
+  <si>
+    <t>28-Sep-17</t>
   </si>
   <si>
     <t>Approve By RM</t>
@@ -553,7 +556,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -614,6 +617,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="00003 Ajinkya Rahane"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -625,8 +631,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -634,7 +640,7 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -670,13 +676,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -691,8 +697,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -706,13 +712,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -723,22 +729,25 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="00003 Ajinkya Rahane"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
